--- a/配给量.xlsx
+++ b/配给量.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024MCM_Pre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4758113-3329-483F-BDD0-EEC190A1BD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52777A1-00E1-483B-BED9-FCE08CB3AE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5436" yWindow="2520" windowWidth="17304" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="197" formatCode="0.000000000000000000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000000000000000000_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -108,6 +108,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -165,7 +166,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="197" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -649,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:I15"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="L16" sqref="J14:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
